--- a/apps/pczone/test/support/data/platforms.xlsx
+++ b/apps/pczone/test/support/data/platforms.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achilles/Documents/pczone/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achilles/Projects/pczone_umbrella/apps/pczone/test/support/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B1AA898-05FA-D743-B7EC-59E198780784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31EC7E2-86DB-3841-A50B-8C0A8CC0E036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{00E481DD-5042-C84D-AAA0-1B68F39F7367}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>code</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>rate</t>
+  </si>
+  <si>
+    <t>merchant_id</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>76922911</t>
   </si>
 </sst>
 </file>
@@ -86,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,18 +412,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F36CF2-D14A-EA4F-90DA-FF7558EFFE94}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +434,11 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -434,8 +448,11 @@
       <c r="C2">
         <v>1.05</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -444,6 +461,9 @@
       </c>
       <c r="C3">
         <v>1.05</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
